--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,14 +581,14 @@
         <v>13827</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>275</v>
       </c>
       <c r="E4" s="7">
         <v>4.49</v>
       </c>
       <c r="F4" s="10">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>1234.75</v>
       </c>
       <c r="G4" s="11">
@@ -609,14 +609,14 @@
         <v>7192</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
       <c r="E5" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="10">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>345.06</v>
       </c>
       <c r="G5" s="2"/>
@@ -634,14 +634,14 @@
         <v>14177</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
       <c r="F6" s="10">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>1571.5</v>
       </c>
       <c r="G6" s="11">
@@ -662,14 +662,14 @@
         <v>7377</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>185</v>
       </c>
       <c r="E7" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="10">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>449.55</v>
       </c>
       <c r="G7" s="2"/>
@@ -687,14 +687,14 @@
         <v>14384</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>207</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="10">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>929.43000000000006</v>
       </c>
       <c r="G8" s="11">
@@ -715,14 +715,14 @@
         <v>7474</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="E9" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="10">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>235.71</v>
       </c>
       <c r="G9" s="2"/>
@@ -730,29 +730,80 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>14567</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <v>821.67000000000007</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>1040.3700000000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1040.3699999999999</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7564</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
+        <v>218.70000000000002</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G2:G9)</f>
-        <v>4766</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(H2:H9)</f>
-        <v>4766</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+      <c r="G12" s="11">
+        <f>SUM(G2:G11)</f>
+        <v>5806.37</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>5806.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -783,25 +783,76 @@
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>14797</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
+        <v>230</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>1032.7</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>1304.8600000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1304.8599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>7676</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="4"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="11">
         <f>SUM(G2:G11)</f>
         <v>5806.37</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <f>SUM(H2:H11)</f>
         <v>5806.37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,26 +834,77 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="4">
+        <v>44008</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>14912</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
+        <v>115</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>516.35</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>630.56000000000006</v>
+      </c>
+      <c r="H14" s="2">
+        <v>630.55999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>7723</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="6"/>
+        <v>114.21000000000001</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>5806.37</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>5806.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G16" s="11">
+        <f>SUM(G2:G15)</f>
+        <v>7741.79</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H2:H15)</f>
+        <v>7741.7899999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>0</v>
+      <c r="G17" s="2"/>
+      <c r="H17" s="11">
+        <f>SUM(H16,-G16)</f>
+        <v>-9.0949470177292824E-13</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -885,25 +885,76 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="4">
+        <v>44041</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15082</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="7">SUM(C16,-C14)</f>
+        <v>170</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>800.7</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>997.05000000000007</v>
+      </c>
+      <c r="H16" s="2">
+        <v>997.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>7800</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="8"/>
+        <v>196.35</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G18" s="11">
         <f>SUM(G2:G15)</f>
         <v>7741.79</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="11">
         <f>SUM(H2:H15)</f>
         <v>7741.7899999999991</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="11">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="2"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
         <v>-9.0949470177292824E-13</v>
       </c>
     </row>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -936,26 +936,77 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>44069</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15216</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
+        <v>134</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>631.14</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>779.04</v>
+      </c>
+      <c r="H18" s="2">
+        <v>778.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>7858</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="10"/>
+        <v>147.89999999999998</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
-        <f>SUM(G2:G15)</f>
-        <v>7741.79</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(H2:H15)</f>
-        <v>7741.7899999999991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>9517.880000000001</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>9517.0699999999979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
-        <v>-9.0949470177292824E-13</v>
+      <c r="G21" s="2"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
+        <v>-0.81000000000312866</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -987,25 +987,76 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>15358</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="11">SUM(C20,-C18)</f>
+        <v>142</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>668.82</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>826.92000000000007</v>
+      </c>
+      <c r="H20" s="2">
+        <v>826.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7920</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="12"/>
+        <v>158.1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>9517.880000000001</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>9517.0699999999979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="11">
+        <f>SUM(G2:G21)</f>
+        <v>10344.800000000001</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>10343.989999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="11">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="11">
+        <f>SUM(H22,-G22)</f>
         <v>-0.81000000000312866</v>
       </c>
     </row>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1038,25 +1038,76 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>44130</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>15512</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="13">SUM(C22,-C20)</f>
+        <v>154</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F23" si="14">D22*E22</f>
+        <v>725.34</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>931.89</v>
+      </c>
+      <c r="H22" s="2">
+        <v>931.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>8001</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="14"/>
+        <v>206.54999999999998</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G24" s="11">
         <f>SUM(G2:G21)</f>
         <v>10344.800000000001</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H24" s="11">
         <f>SUM(H2:H21)</f>
         <v>10343.989999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="11">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="2"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>-0.81000000000312866</v>
       </c>
     </row>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +94,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -154,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -183,8 +176,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -512,7 +503,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -538,577 +529,261 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43824</v>
+        <v>44041</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>13552</v>
+      <c r="C2" s="9">
+        <v>15082</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>7050</v>
+      <c r="C3" s="9">
+        <v>7800</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43853</v>
+        <v>44069</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <v>13827</v>
+        <v>15216</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
-        <v>275</v>
+        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
+        <v>134</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>1234.75</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>631.14</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>1579.81</v>
+        <v>779.04</v>
       </c>
       <c r="H4" s="2">
-        <v>1579.81</v>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>778.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9">
-        <v>7192</v>
+        <v>7858</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>345.06</v>
+        <v>147.89999999999998</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43888</v>
+        <v>44104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>14177</v>
+        <v>15358</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <v>142</v>
       </c>
       <c r="E6" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="1"/>
-        <v>1571.5</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>668.82</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>2021.05</v>
+        <v>826.92000000000007</v>
       </c>
       <c r="H6" s="2">
-        <v>2021.05</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>826.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="9">
-        <v>7377</v>
+        <v>7920</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>185</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="E7" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>449.55</v>
+        <f t="shared" si="3"/>
+        <v>158.1</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43916</v>
+        <v>44130</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="9">
-        <v>14384</v>
+        <v>15512</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>207</v>
+        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
+        <v>154</v>
       </c>
       <c r="E8" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="1"/>
-        <v>929.43000000000006</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>725.34</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>1165.1400000000001</v>
+        <v>931.89</v>
       </c>
       <c r="H8" s="2">
-        <v>1165.1400000000001</v>
-      </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>931.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9">
-        <v>7474</v>
+        <v>8001</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
       <c r="E9" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="1"/>
-        <v>235.71</v>
+        <f t="shared" si="5"/>
+        <v>206.54999999999998</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43948</v>
+        <v>44165</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="9">
-        <v>14567</v>
+        <v>15790</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>183</v>
+        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
+        <v>278</v>
       </c>
       <c r="E10" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
-        <v>821.67000000000007</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>1309.3799999999999</v>
       </c>
       <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>1040.3700000000001</v>
+        <v>1643.4299999999998</v>
       </c>
       <c r="H10" s="2">
-        <v>1040.3699999999999</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1643.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="9">
-        <v>7564</v>
+        <v>8132</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>131</v>
       </c>
       <c r="E11" s="8">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="2"/>
-        <v>218.70000000000002</v>
+        <f t="shared" si="7"/>
+        <v>334.04999999999995</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43978</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>14797</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
-        <v>230</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
-        <v>1032.7</v>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="11">
-        <f>SUM(F12,F13)</f>
-        <v>1304.8600000000001</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1304.8599999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>7676</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="4"/>
-        <v>272.16000000000003</v>
+        <f>SUM(G2:G11)</f>
+        <v>4181.28</v>
+      </c>
+      <c r="H12" s="11">
+        <f>SUM(H2:H11)</f>
+        <v>4180.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44008</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>14912</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
-        <v>115</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
-        <v>516.35</v>
-      </c>
-      <c r="G14" s="11">
-        <f>SUM(F14,F15)</f>
-        <v>630.56000000000006</v>
-      </c>
-      <c r="H14" s="2">
-        <v>630.55999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>7723</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="6"/>
-        <v>114.21000000000001</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44041</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>15082</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="7">SUM(C16,-C14)</f>
-        <v>170</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
-        <v>800.7</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>997.05000000000007</v>
-      </c>
-      <c r="H16" s="2">
-        <v>997.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <v>7800</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="8"/>
-        <v>196.35</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44069</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>15216</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
-        <v>134</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
-        <v>631.14</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>779.04</v>
-      </c>
-      <c r="H18" s="2">
-        <v>778.23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <v>7858</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="9"/>
-        <v>58</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="10"/>
-        <v>147.89999999999998</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44104</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>15358</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="11">SUM(C20,-C18)</f>
-        <v>142</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
-        <v>668.82</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>826.92000000000007</v>
-      </c>
-      <c r="H20" s="2">
-        <v>826.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
-        <v>7920</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="11"/>
-        <v>62</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="12"/>
-        <v>158.1</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44130</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>15512</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="13">SUM(C22,-C20)</f>
-        <v>154</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" ref="F22:F23" si="14">D22*E22</f>
-        <v>725.34</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(F22,F23)</f>
-        <v>931.89</v>
-      </c>
-      <c r="H22" s="2">
-        <v>931.89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>8001</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="13"/>
-        <v>81</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="14"/>
-        <v>206.54999999999998</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="11">
-        <f>SUM(G2:G21)</f>
-        <v>10344.800000000001</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H21)</f>
-        <v>10343.989999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
-        <v>-0.81000000000312866</v>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
+        <v>-0.80999999999949068</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,7 +483,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -764,25 +764,76 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="4">
+        <v>44196</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>16054</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
+        <v>264</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>1243.44</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>1582.5900000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1582.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>8265</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="8"/>
+        <v>133</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="9"/>
+        <v>339.15</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="11">
         <f>SUM(G2:G11)</f>
         <v>4181.28</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <f>SUM(H2:H11)</f>
         <v>4180.47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11">
+        <f>SUM(H14,-G14)</f>
         <v>-0.80999999999949068</v>
       </c>
     </row>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -815,26 +815,230 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="4">
+        <v>44230</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>16519</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
+        <v>465</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>2190.15</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>2807.25</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2807.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8507</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="11"/>
+        <v>617.09999999999991</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44257</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>17757</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
+        <v>1238</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>5830.98</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>7460.4299999999994</v>
+      </c>
+      <c r="H16" s="2">
+        <v>7460.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>9146</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>639</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="13"/>
+        <v>1629.4499999999998</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44279</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>18339</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
+        <v>582</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>2741.22</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>3460.3199999999997</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3460.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>9428</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="14"/>
+        <v>282</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="15"/>
+        <v>719.09999999999991</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18339</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2438.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>9428</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="11">
-        <f>SUM(G2:G11)</f>
-        <v>4181.28</v>
-      </c>
-      <c r="H14" s="11">
-        <f>SUM(H2:H11)</f>
-        <v>4180.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G22" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>19491.87</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>19491.060000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="11">
-        <f>SUM(H14,-G14)</f>
-        <v>-0.80999999999949068</v>
+      <c r="G23" s="2"/>
+      <c r="H23" s="11">
+        <f>SUM(H22,-G22)</f>
+        <v>-0.80999999999767169</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -483,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1019,25 +1019,76 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>44344</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18339</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>276.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>9428</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G24" s="11">
         <f>SUM(G2:G19)</f>
         <v>19491.87</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H24" s="11">
         <f>SUM(H2:H19)</f>
         <v>19491.060000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="11">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="2"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>-0.80999999999767169</v>
       </c>
     </row>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -99,12 +99,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -176,6 +182,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,10 +491,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -992,7 +1000,7 @@
         <f>SUM(F20,F21)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="13">
         <v>2438.31</v>
       </c>
     </row>
@@ -1016,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1043,7 +1051,7 @@
         <f>SUM(F22,F23)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="13">
         <v>276.42</v>
       </c>
     </row>
@@ -1067,29 +1075,80 @@
         <v>0</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="4">
+        <v>44379</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>19070</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
+        <v>731</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>3443.0099999999998</v>
+      </c>
+      <c r="G24" s="12">
+        <f>SUM(F24,F25)</f>
+        <v>4452.8099999999995</v>
+      </c>
+      <c r="H24" s="13">
+        <v>296.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>9824</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="20"/>
+        <v>396</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="21"/>
+        <v>1009.8</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>19491.87</v>
-      </c>
-      <c r="H24" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>19491.060000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="11">
+        <f>SUM(G2:G25)</f>
+        <v>23944.68</v>
+      </c>
+      <c r="H26" s="11">
+        <f>SUM(H2:H25)</f>
+        <v>22502.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
-        <v>-0.80999999999767169</v>
+      <c r="G27" s="2"/>
+      <c r="H27" s="11">
+        <f>SUM(H26,-G26)</f>
+        <v>-1442.0699999999997</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -99,7 +99,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -184,6 +190,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -983,22 +991,22 @@
         <v>0</v>
       </c>
       <c r="C20" s="9">
-        <v>18339</v>
+        <v>18730</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="E20" s="7">
         <v>4.71</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" ref="F20:F21" si="17">D20*E20</f>
-        <v>0</v>
+        <v>1841.61</v>
       </c>
       <c r="G20" s="11">
         <f>SUM(F20,F21)</f>
-        <v>0</v>
+        <v>2438.31</v>
       </c>
       <c r="H20" s="13">
         <v>2438.31</v>
@@ -1010,18 +1018,18 @@
         <v>1</v>
       </c>
       <c r="C21" s="9">
-        <v>9428</v>
+        <v>9662</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="E21" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>596.69999999999993</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="13"/>
@@ -1034,22 +1042,22 @@
         <v>0</v>
       </c>
       <c r="C22" s="9">
-        <v>18339</v>
+        <v>18747</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E22" s="7">
         <v>4.71</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" ref="F22:F23" si="19">D22*E22</f>
-        <v>0</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="G22" s="11">
         <f>SUM(F22,F23)</f>
-        <v>0</v>
+        <v>276.41999999999996</v>
       </c>
       <c r="H22" s="13">
         <v>276.42</v>
@@ -1061,18 +1069,18 @@
         <v>1</v>
       </c>
       <c r="C23" s="9">
-        <v>9428</v>
+        <v>9739</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E23" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>196.35</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="13"/>
@@ -1085,22 +1093,22 @@
         <v>0</v>
       </c>
       <c r="C24" s="9">
-        <v>19070</v>
+        <v>18764</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
-        <v>731</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7">
         <v>4.71</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" ref="F24:F25" si="21">D24*E24</f>
-        <v>3443.0099999999998</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="G24" s="12">
         <f>SUM(F24,F25)</f>
-        <v>4452.8099999999995</v>
+        <v>296.81999999999994</v>
       </c>
       <c r="H24" s="13">
         <v>296.82</v>
@@ -1116,39 +1124,90 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="20"/>
-        <v>396</v>
+        <v>85</v>
       </c>
       <c r="E25" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="21"/>
-        <v>1009.8</v>
+        <v>216.74999999999997</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="4">
+        <v>44418</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>18965</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="22">SUM(C26,-C24)</f>
+        <v>201</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
+        <v>996.96</v>
+      </c>
+      <c r="G26" s="14">
+        <f>SUM(F26,F27)</f>
+        <v>1248.8800000000001</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1248.8800000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <v>9918</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="22"/>
+        <v>94</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="23"/>
+        <v>251.92000000000002</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11">
-        <f>SUM(G2:G25)</f>
-        <v>23944.68</v>
-      </c>
-      <c r="H26" s="11">
-        <f>SUM(H2:H25)</f>
-        <v>22502.61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="11">
+        <f>SUM(G2:G27)</f>
+        <v>23752.3</v>
+      </c>
+      <c r="H28" s="11">
+        <f>SUM(H2:H27)</f>
+        <v>23751.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="11">
-        <f>SUM(H26,-G26)</f>
-        <v>-1442.0699999999997</v>
+      <c r="G29" s="2"/>
+      <c r="H29" s="11">
+        <f>SUM(H28,-G28)</f>
+        <v>-0.80999999999767169</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -108,13 +108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -190,8 +190,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,20 +547,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>44041</v>
+      <c r="A2" s="14">
+        <v>44468</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>15082</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
+        <v>19487</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>309</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F5" si="1">D2*E2</f>
+        <v>1532.64</v>
+      </c>
+      <c r="G2" s="12">
+        <f>SUM(F2,F3)</f>
+        <v>1532.64</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1532.64</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -567,41 +581,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="9">
-        <v>7800</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="10"/>
+        <v>10025</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44069</v>
+        <v>44468</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <v>15216</v>
+        <v>19178</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">SUM(C4,-C2)</f>
-        <v>134</v>
+        <f>SUM(C4,-C6)</f>
+        <v>213</v>
       </c>
       <c r="E4" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>631.14</v>
-      </c>
-      <c r="G4" s="11">
+        <f t="shared" si="1"/>
+        <v>1056.48</v>
+      </c>
+      <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>779.04</v>
-      </c>
-      <c r="H4" s="2">
-        <v>778.23</v>
+        <v>1343.24</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1343.24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,50 +632,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="9">
-        <v>7858</v>
+        <v>10025</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f>SUM(C5,-C7)</f>
+        <v>107</v>
       </c>
       <c r="E5" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>147.89999999999998</v>
+        <v>286.76</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44104</v>
+        <v>44418</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>15358</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
-        <v>142</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>668.82</v>
-      </c>
-      <c r="G6" s="11">
-        <f>SUM(F6,F7)</f>
-        <v>826.92000000000007</v>
-      </c>
-      <c r="H6" s="2">
-        <v>826.92</v>
-      </c>
+        <v>18965</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -661,553 +670,35 @@
         <v>1</v>
       </c>
       <c r="C7" s="9">
-        <v>7920</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="3"/>
-        <v>158.1</v>
-      </c>
+        <v>9918</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44130</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(G2:G3)</f>
+        <v>1532.64</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUM(H2:H3)</f>
+        <v>1532.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="11">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>15512</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="4">SUM(C8,-C6)</f>
-        <v>154</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>725.34</v>
-      </c>
-      <c r="G8" s="11">
-        <f>SUM(F8,F9)</f>
-        <v>931.89</v>
-      </c>
-      <c r="H8" s="2">
-        <v>931.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>8001</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" si="5"/>
-        <v>206.54999999999998</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44165</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>15790</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="6">SUM(C10,-C8)</f>
-        <v>278</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>1309.3799999999999</v>
-      </c>
-      <c r="G10" s="11">
-        <f>SUM(F10,F11)</f>
-        <v>1643.4299999999998</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1643.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>8132</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="6"/>
-        <v>131</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="7"/>
-        <v>334.04999999999995</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44196</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9">
-        <v>16054</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="8">SUM(C12,-C10)</f>
-        <v>264</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
-        <v>1243.44</v>
-      </c>
-      <c r="G12" s="11">
-        <f>SUM(F12,F13)</f>
-        <v>1582.5900000000001</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1582.59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>8265</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>133</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="9"/>
-        <v>339.15</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44230</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>16519</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="10">SUM(C14,-C12)</f>
-        <v>465</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
-        <v>2190.15</v>
-      </c>
-      <c r="G14" s="11">
-        <f>SUM(F14,F15)</f>
-        <v>2807.25</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2807.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9">
-        <v>8507</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="10"/>
-        <v>242</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="11"/>
-        <v>617.09999999999991</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44257</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>17757</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="12">SUM(C16,-C14)</f>
-        <v>1238</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
-        <v>5830.98</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>7460.4299999999994</v>
-      </c>
-      <c r="H16" s="2">
-        <v>7460.43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <v>9146</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="12"/>
-        <v>639</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="13"/>
-        <v>1629.4499999999998</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44279</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="9">
-        <v>18339</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="14">SUM(C18,-C16)</f>
-        <v>582</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
-        <v>2741.22</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>3460.3199999999997</v>
-      </c>
-      <c r="H18" s="2">
-        <v>3460.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <v>9428</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="14"/>
-        <v>282</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="15"/>
-        <v>719.09999999999991</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44312</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>18730</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="16">SUM(C20,-C18)</f>
-        <v>391</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
-        <v>1841.61</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>2438.31</v>
-      </c>
-      <c r="H20" s="13">
-        <v>2438.31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
-        <v>9662</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="16"/>
-        <v>234</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="17"/>
-        <v>596.69999999999993</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44344</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>18747</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="18">SUM(C22,-C20)</f>
-        <v>17</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
-        <v>80.069999999999993</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(F22,F23)</f>
-        <v>276.41999999999996</v>
-      </c>
-      <c r="H22" s="13">
-        <v>276.42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>9739</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="18"/>
-        <v>77</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="19"/>
-        <v>196.35</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44379</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="9">
-        <v>18764</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" ref="D24:D25" si="20">SUM(C24,-C22)</f>
-        <v>17</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
-        <v>80.069999999999993</v>
-      </c>
-      <c r="G24" s="12">
-        <f>SUM(F24,F25)</f>
-        <v>296.81999999999994</v>
-      </c>
-      <c r="H24" s="13">
-        <v>296.82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9">
-        <v>9824</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="20"/>
-        <v>85</v>
-      </c>
-      <c r="E25" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="10">
-        <f t="shared" si="21"/>
-        <v>216.74999999999997</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44418</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9">
-        <v>18965</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D27" si="22">SUM(C26,-C24)</f>
-        <v>201</v>
-      </c>
-      <c r="E26" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
-        <v>996.96</v>
-      </c>
-      <c r="G26" s="14">
-        <f>SUM(F26,F27)</f>
-        <v>1248.8800000000001</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1248.8800000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9">
-        <v>9918</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="22"/>
-        <v>94</v>
-      </c>
-      <c r="E27" s="8">
-        <v>2.68</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="23"/>
-        <v>251.92000000000002</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="11">
-        <f>SUM(G2:G27)</f>
-        <v>23752.3</v>
-      </c>
-      <c r="H28" s="11">
-        <f>SUM(H2:H27)</f>
-        <v>23751.49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="11">
-        <f>SUM(H28,-G28)</f>
-        <v>-0.80999999999767169</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,6 +191,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -548,31 +551,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44468</v>
+        <v>44497</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>19487</v>
+        <v>19595</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>309</v>
+        <v>108</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="10">
-        <f t="shared" ref="F2:F5" si="1">D2*E2</f>
-        <v>1532.64</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>535.67999999999995</v>
       </c>
       <c r="G2" s="12">
         <f>SUM(F2,F3)</f>
-        <v>1532.64</v>
+        <v>699.16</v>
       </c>
       <c r="H2" s="13">
-        <v>1532.64</v>
+        <v>699.16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,49 +584,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="9">
-        <v>10025</v>
+        <v>10086</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8">
         <v>2.68</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163.48000000000002</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="15">
         <v>44468</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <v>19178</v>
+        <v>19487</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>213</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>309</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" si="1"/>
-        <v>1056.48</v>
+        <f t="shared" ref="F4:F7" si="3">D4*E4</f>
+        <v>1532.64</v>
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>1343.24</v>
+        <v>1532.64</v>
       </c>
       <c r="H4" s="13">
-        <v>1343.24</v>
+        <v>1532.64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,34 +638,47 @@
         <v>10025</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>107</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
         <v>2.68</v>
       </c>
       <c r="F5" s="10">
-        <f t="shared" si="1"/>
-        <v>286.76</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44418</v>
+        <v>44468</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>18965</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
+        <v>19178</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C8)</f>
+        <v>213</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="3"/>
+        <v>1056.48</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>1343.24</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1343.24</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -670,34 +686,72 @@
         <v>1</v>
       </c>
       <c r="C7" s="9">
-        <v>9918</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
+        <v>10025</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C9)</f>
+        <v>107</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="3"/>
+        <v>286.76</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
+      <c r="A8" s="4">
+        <v>44418</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>18965</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>9918</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11">
-        <f>SUM(G2:G3)</f>
+      <c r="G10" s="11">
+        <f>SUM(G4:G5)</f>
         <v>1532.64</v>
       </c>
-      <c r="H8" s="11">
-        <f>SUM(H2:H3)</f>
+      <c r="H10" s="11">
+        <f>SUM(H4:H5)</f>
         <v>1532.64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="11">
-        <f>SUM(H8,-G8)</f>
+      <c r="G11" s="2"/>
+      <c r="H11" s="11">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/48ee.xlsx
+++ b/sputnik/personal/ee/48ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -503,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,31 +551,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44497</v>
+        <v>44529</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>19595</v>
+        <v>19768</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>535.67999999999995</v>
+        <v>858.08</v>
       </c>
       <c r="G2" s="12">
         <f>SUM(F2,F3)</f>
-        <v>699.16</v>
+        <v>1085.8800000000001</v>
       </c>
       <c r="H2" s="13">
-        <v>699.16</v>
+        <v>1085.8800000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -584,49 +584,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="9">
-        <v>10086</v>
+        <v>10171</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E3" s="8">
         <v>2.68</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="1"/>
-        <v>163.48000000000002</v>
+        <v>227.8</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44468</v>
+        <v>44497</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <v>19487</v>
+        <v>19595</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>309</v>
+        <v>108</v>
       </c>
       <c r="E4" s="7">
         <v>4.96</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F7" si="3">D4*E4</f>
-        <v>1532.64</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>535.67999999999995</v>
       </c>
       <c r="G4" s="12">
         <f>SUM(F4,F5)</f>
-        <v>1532.64</v>
+        <v>699.16</v>
       </c>
       <c r="H4" s="13">
-        <v>1532.64</v>
+        <v>699.16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,49 +635,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="9">
-        <v>10025</v>
+        <v>10086</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E5" s="8">
         <v>2.68</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163.48000000000002</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="15">
         <v>44468</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>19178</v>
+        <v>19487</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
-        <v>213</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>309</v>
       </c>
       <c r="E6" s="7">
         <v>4.96</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="3"/>
-        <v>1056.48</v>
+        <f t="shared" ref="F6:F9" si="5">D6*E6</f>
+        <v>1532.64</v>
       </c>
       <c r="G6" s="12">
         <f>SUM(F6,F7)</f>
-        <v>1343.24</v>
+        <v>1532.64</v>
       </c>
       <c r="H6" s="13">
-        <v>1343.24</v>
+        <v>1532.64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,34 +689,47 @@
         <v>10025</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="E7" s="8">
         <v>2.68</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="3"/>
-        <v>286.76</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44418</v>
+        <v>44468</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="9">
-        <v>18965</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+        <v>19178</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C10)</f>
+        <v>213</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="5"/>
+        <v>1056.48</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>1343.24</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1343.24</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -724,34 +737,72 @@
         <v>1</v>
       </c>
       <c r="C9" s="9">
-        <v>9918</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
+        <v>10025</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C11)</f>
+        <v>107</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="5"/>
+        <v>286.76</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="4">
+        <v>44418</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>18965</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9918</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="11">
-        <f>SUM(G4:G5)</f>
+      <c r="G12" s="11">
+        <f>SUM(G6:G7)</f>
         <v>1532.64</v>
       </c>
-      <c r="H10" s="11">
-        <f>SUM(H4:H5)</f>
+      <c r="H12" s="11">
+        <f>SUM(H6:H7)</f>
         <v>1532.64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11">
+        <f>SUM(H12,-G12)</f>
         <v>0</v>
       </c>
     </row>
